--- a/data/predictions/race/aff_act_hrt_wht/leveled/leandemocrat.xlsx
+++ b/data/predictions/race/aff_act_hrt_wht/leveled/leandemocrat.xlsx
@@ -706,7 +706,7 @@
         <v>2019</v>
       </c>
       <c r="B34">
-        <v>0.4246714628056916</v>
+        <v>0.3839052655346504</v>
       </c>
       <c r="D34">
         <v>0.08569189938753871</v>
@@ -720,7 +720,7 @@
         <v>2020</v>
       </c>
       <c r="B35">
-        <v>0.4246714628056916</v>
+        <v>0.3898911674942844</v>
       </c>
       <c r="D35">
         <v>0.07602096653742012</v>
@@ -734,7 +734,7 @@
         <v>2021</v>
       </c>
       <c r="B36">
-        <v>0.4246714628056916</v>
+        <v>0.3986067780376097</v>
       </c>
       <c r="D36">
         <v>0.06657165958262158</v>
@@ -748,7 +748,7 @@
         <v>2022</v>
       </c>
       <c r="B37">
-        <v>0.4246714628056916</v>
+        <v>0.4405942836298936</v>
       </c>
       <c r="D37">
         <v>0.05713556399308356</v>
@@ -762,7 +762,7 @@
         <v>2023</v>
       </c>
       <c r="B38">
-        <v>0.4246714628056916</v>
+        <v>0.4085240610943765</v>
       </c>
       <c r="D38">
         <v>0.04770025594767163</v>
@@ -776,7 +776,7 @@
         <v>2024</v>
       </c>
       <c r="B39">
-        <v>0.4246714628056916</v>
+        <v>0.4049974696624836</v>
       </c>
       <c r="D39">
         <v>0.03826499484863793</v>
